--- a/pyt-in-finance/samplefiles/HousesOnSale.xlsx
+++ b/pyt-in-finance/samplefiles/HousesOnSale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer.yesil\projects\pyt-tutorials\pyt-in-finance\samplefiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5C85E5-0202-4A03-878A-9409F91786D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC2F2F2-AD2E-475D-9C62-EE1EB85BC66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="5510" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10550" yWindow="4960" windowWidth="28790" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>House Price</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Toronto</t>
+  </si>
+  <si>
+    <t>Built Year</t>
+  </si>
+  <si>
+    <t>Location Score</t>
   </si>
 </sst>
 </file>
@@ -69,18 +75,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -106,11 +106,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,229 +425,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="6" width="15.81640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>590000</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>900</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1995</v>
+      </c>
+      <c r="F2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>600000</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1000</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1992</v>
+      </c>
+      <c r="F3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>670000</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>1150</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>750000</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1996</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>800000</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1300</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>850000</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>2150</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>900000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>1050</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2007</v>
+      </c>
+      <c r="F8" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>970000</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>1300</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2005</v>
+      </c>
+      <c r="F9" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>1000000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>1900</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>1050000</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1700</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>1050000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1900</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>1150000</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1600</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F13" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>1200000</v>
       </c>
-      <c r="B14" s="1">
-        <v>2275</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="B14" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>1300000</v>
       </c>
-      <c r="B15" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
+      <c r="B15" s="2">
+        <v>2650</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1990</v>
+      </c>
+      <c r="F15" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
